--- a/biology/Médecine/Sadie_Harris/Sadie_Harris.xlsx
+++ b/biology/Médecine/Sadie_Harris/Sadie_Harris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sadie Harris est le nom d'un personnage fictif de la série télévisée Grey's Anatomy. Interprété par l'actrice Melissa George, ce personnage secondaire a été créé par la productrice de la série Shonda Rhimes.
@@ -513,7 +525,9 @@
           <t>Histoire du personnage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sadie Harris apparaît pour la première fois dans le cinquième épisode de la saison cinq "L’effet domino", dans lequel il est fait savoir qu'elle était autrefois une amie très proche de Meredith Grey (Ellen Pompeo). Harris et Meredith Grey s'étaient donné des surnoms lors de vacances prolongées en Europe : respectivement, "La Tuerie" et "La Tueuse". La meilleure amie de Meredith Grey est Cristina Yang (Sandra Oh) ; Yang devient jalouse de l'amitié entre Meredith Grey et Harris. Après avoir rejoint le Seattle Grace Hospital  en tant qu'interne en chirurgie, Harris se lie d'amitié avec Lexie Grey (Chyler Leigh), la sœur de Meredith Grey. Les internes de l'hôpital sont frustrés par leur manque de possibilités chirurgicales, alors Harris se coupe l'épaule et laisse les internes la recoudre ensemble.
 Par la suite, Harris se porte volontaire pour subir une appendicectomie afin d'aider les internes à apprendre cette intervention chirurgicale, à la condition qu'elle ait la chance d'en subir une par la suite. Les internes commettent une erreur durant l’opération et Harris est gravement en danger, mais est sauvée par les résidents. Les internes sont mis à l'épreuve et réprimandés par Meredith Grey, bien que Harris dise à Lexie Grey qu'elle ne s'excuse pas. Après le fiasco de la chirurgie, Harris approche Richard Webber (James Pickens, Jr.), chef de chirurgie de l'hôpital, et revendique la responsabilité de l'incident. Il l'informe que si elle n'a pas été congédiée, c'est en raison de son amitié personnelle avec son père.
@@ -548,14 +562,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Casting et écriture du personnage
-Melissa George a été invitée à rencontrer les productrices exécutives de la série télévisée, Shonda Rhimes et Betsy Beers, après que des agents de casting de Grey's Anatomy ont vu ses prestations récurrentes dans la série télévisée En analyse. George a expliqué qu'après avoir rencontré les producteurs, elle fut engagée rapidement.
+          <t>Casting et écriture du personnage</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Melissa George a été invitée à rencontrer les productrices exécutives de la série télévisée, Shonda Rhimes et Betsy Beers, après que des agents de casting de Grey's Anatomy ont vu ses prestations récurrentes dans la série télévisée En analyse. George a expliqué qu'après avoir rencontré les producteurs, elle fut engagée rapidement.
 Le contrat initial de George comprenait huit à onze épisodes d'apparitions récurrentes, avec la possibilité de devenir une série régulière. Cependant, selon la porte-parole de George, elle n'avait pas l'intention de faire plus de huit épisodes. Harris devait initialement avoir une liaison avec Torres, mais Rhimes a finalement changé cela après que George a commencé à tourner. Elle était initialement décrite comme lesbienne, puis a été redécrite comme bisexuelle.
 En janvier 2009, George a confirmé son départ de Grey's Anatomy, et plusieurs raisons ont été citées pour son départ. George a dit qu'elle avait décidé de partir pour poursuivre un autre projet et a fait l'éloge des membres de la distribution. Cependant, un représentant du spectacle a affirmé que le départ de l'actrice était dû à un accord mutuel entre Grey's Anatomy et George, expliquant que l'histoire du personnage " prenait fin naturellement ", mais que chacun était contrarié par son départ. 
-Caractéristiques
-Le personnage joué par George a été décrit comme étant "coquin" et "espiègle", ainsi que "fou". De plus, la sexualité de Harris n'est pas l'aspect principal de sa personnalité. George a qualifié son personnage de " borderline" et a déclaré que sa personnalité extravertie avait pour but de dissimuler autre chose. George a déclaré que la façon dont elle dépeignait Harris était influencée par le franc-parler de Lisa Rowe, un personnage sociopathe de Une vie volée, interprété par Angelina Jolie.
-Peter Nowalk, l'un des scénaristes de l'émission, a qualifié Harris de " fille plutôt coquette "D'autres membres de la distribution de Grey's Anatomy ont également commenté le personnage de Harris ; Chandra Wilson a déclaré que Harris est un personnage au rythme rapide, tandis que Leigh a dit que le personnage est là pour " déranger Seattle Grace ". Entertainment Weekly's Michael Ausiello a dit que Harris était " un interne avec un esprit ouvert envers la sexualité ".
-Debbie Chang, qui écrit pour BuddyTV, et Jonathan Toomey, du HuffPost, ont également donné des idées sur l'auto-incision de Harris dans l'épisode "In the Midnight Hour", se demandant si elle "a un désir de mort" et "ce qui ne va pas chez elle" Stacy McKee, auteure principal pour cette émission, dit que Harris est la "pré-Cristina Cristina" de Meredith Grey et qu'elle partage avec Meredith une "histoire que Cristina ne peut".
 </t>
         </is>
       </c>
@@ -581,10 +596,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le personnage joué par George a été décrit comme étant "coquin" et "espiègle", ainsi que "fou". De plus, la sexualité de Harris n'est pas l'aspect principal de sa personnalité. George a qualifié son personnage de " borderline" et a déclaré que sa personnalité extravertie avait pour but de dissimuler autre chose. George a déclaré que la façon dont elle dépeignait Harris était influencée par le franc-parler de Lisa Rowe, un personnage sociopathe de Une vie volée, interprété par Angelina Jolie.
+Peter Nowalk, l'un des scénaristes de l'émission, a qualifié Harris de " fille plutôt coquette "D'autres membres de la distribution de Grey's Anatomy ont également commenté le personnage de Harris ; Chandra Wilson a déclaré que Harris est un personnage au rythme rapide, tandis que Leigh a dit que le personnage est là pour " déranger Seattle Grace ". Entertainment Weekly's Michael Ausiello a dit que Harris était " un interne avec un esprit ouvert envers la sexualité ".
+Debbie Chang, qui écrit pour BuddyTV, et Jonathan Toomey, du HuffPost, ont également donné des idées sur l'auto-incision de Harris dans l'épisode "In the Midnight Hour", se demandant si elle "a un désir de mort" et "ce qui ne va pas chez elle" Stacy McKee, auteure principal pour cette émission, dit que Harris est la "pré-Cristina Cristina" de Meredith Grey et qu'elle partage avec Meredith une "histoire que Cristina ne peut".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sadie_Harris</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sadie_Harris</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Réception</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Tout au long de son passage sur Grey's Anatomy, le personnage a reçu un accueil mitigé de la part des critiques. Jon Caramanica du Los Angeles Times a critiqué le développement du personnage, qualifiant George de " tristement mal dirigée". Écrivant pour The Age, Michael Idato estime que l'intrigue entre Harris et Yang était " glaciale ".
 Darren Devlyn du Herald Sun se demandait si les producteurs avaient fait appel à George pour "secouer la série", et trouvait l'histoire bisexuelle du personnage semblable à celle de Hahn. En parlant de la sortie de George, Kris De Leon de BuddyTV a noté qu'elle était partie en "meilleurs termes" comparativement à Isaiah Washington (Preston Burke).
